--- a/src/Documentation/Gestion_Projet.xlsx
+++ b/src/Documentation/Gestion_Projet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\Projet-Hangman-Yoan-Hugo\src\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF5BCE4-4B16-4A8B-A8A3-E618DF87122F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A400F95C-C6B4-45AE-A866-0FCFE6950AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Responsable</t>
   </si>
@@ -36,13 +36,82 @@
     <t>Fin</t>
   </si>
   <si>
-    <t xml:space="preserve">Jours </t>
-  </si>
-  <si>
     <t>Statut</t>
   </si>
   <si>
     <t>Tâches / Fonctions</t>
+  </si>
+  <si>
+    <t>Pseudo</t>
+  </si>
+  <si>
+    <t>Yoan</t>
+  </si>
+  <si>
+    <t>Structure Joueur</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>ChoisirMot</t>
+  </si>
+  <si>
+    <t>MasquerMot</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>PremierLancement</t>
+  </si>
+  <si>
+    <t>Yoan / Hugo</t>
+  </si>
+  <si>
+    <t>Continuer Partie</t>
+  </si>
+  <si>
+    <t>Utilitaires</t>
+  </si>
+  <si>
+    <t>Initialisation Joueur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu </t>
+  </si>
+  <si>
+    <t>Mot aléatoire</t>
+  </si>
+  <si>
+    <t>Saisie Lettre</t>
+  </si>
+  <si>
+    <t>AfficheMotLettreTrouvé</t>
+  </si>
+  <si>
+    <t>Affiche Résultat</t>
+  </si>
+  <si>
+    <t>Ajout Lettre</t>
+  </si>
+  <si>
+    <t>Sauvegarde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verif </t>
+  </si>
+  <si>
+    <t>Affichage Pendu</t>
+  </si>
+  <si>
+    <t>Gestion Erreurs</t>
+  </si>
+  <si>
+    <t>Ascii Lettres</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -58,12 +127,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -78,8 +159,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,37 +465,368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7">
+        <v>44843</v>
+      </c>
+      <c r="D2" s="7">
+        <v>44843</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7">
+        <v>44843</v>
+      </c>
+      <c r="D3" s="7">
+        <v>44843</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7">
+        <v>44844</v>
+      </c>
+      <c r="D4" s="7">
+        <v>44845</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7">
+        <v>44844</v>
+      </c>
+      <c r="D5" s="7">
+        <v>44845</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7">
+        <v>44846</v>
+      </c>
+      <c r="D6" s="7">
+        <v>44846</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7">
+        <v>44850</v>
+      </c>
+      <c r="D7" s="7">
+        <v>44850</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7">
+        <v>44856</v>
+      </c>
+      <c r="D8" s="7">
+        <v>44857</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="7">
+        <v>44843</v>
+      </c>
+      <c r="D9" s="7">
+        <v>44857</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7">
+        <v>44844</v>
+      </c>
+      <c r="D10" s="7">
+        <v>44844</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7">
+        <v>44850</v>
+      </c>
+      <c r="D11" s="7">
+        <v>44850</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="7">
+        <v>44850</v>
+      </c>
+      <c r="D12" s="7">
+        <v>44852</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7">
+        <v>44854</v>
+      </c>
+      <c r="D13" s="7">
+        <v>44854</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7">
+        <v>44852</v>
+      </c>
+      <c r="D14" s="7">
+        <v>44852</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="7">
+        <v>44853</v>
+      </c>
+      <c r="D15" s="7">
+        <v>44853</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="7">
+        <v>44854</v>
+      </c>
+      <c r="D16" s="7">
+        <v>44854</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7">
+        <v>44856</v>
+      </c>
+      <c r="D17" s="7">
+        <v>44857</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="8">
+        <v>44846</v>
+      </c>
+      <c r="D18" s="8">
+        <v>44846</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="8">
+        <v>44856</v>
+      </c>
+      <c r="D19" s="8">
+        <v>44857</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="8">
+        <v>44843</v>
+      </c>
+      <c r="D20" s="8">
+        <v>44857</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
